--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antony\Desktop\dev\python\GraficaDatosPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27458A89-25AE-4B99-91D1-3E4F9DC3DDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD2AB5B-F6B2-4B04-BFAC-FE9FD3B6DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{EA790563-AEA8-4D9E-B09E-B0FC67A0B42D}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +403,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <f>A2*A2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -411,7 +412,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <f t="shared" ref="B3:B16" si="0">A3*A3</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,7 +421,8 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -427,7 +430,8 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,7 +439,8 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +448,8 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +457,8 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +466,8 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,7 +475,8 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +484,8 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +493,8 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,7 +502,8 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,7 +511,8 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +520,8 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +529,8 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
